--- a/python_code/副本Week_Y_BMI_0.04_result.xlsx
+++ b/python_code/副本Week_Y_BMI_0.04_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhuanZ\Desktop\mathmodel\mathmodeling_2024\python_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DB1FBA-4366-4341-887B-D7B411394425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D64E86-D0B8-4CC7-8D92-9FC6C35A76D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>标准化BMI增长速率</t>
   </si>
   <si>
-    <t>BMI值(y = 0.04)</t>
-  </si>
-  <si>
     <t>A001</t>
   </si>
   <si>
@@ -662,13 +659,17 @@
   </si>
   <si>
     <t>A267</t>
+  </si>
+  <si>
+    <t>天数(y = 0.04)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +689,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -725,9 +733,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -806,7 +817,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BMI值(y = 0.04)</c:v>
+                  <c:v>天数(y = 0.04)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2991,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="L1:L1048576 E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3043,16 +3054,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="L1" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>28.125</v>
@@ -3087,10 +3098,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>28.64124339</v>
@@ -3125,10 +3136,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4">
         <v>29.955555560000001</v>
@@ -3163,10 +3174,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5">
         <v>33.333333330000002</v>
@@ -3201,10 +3212,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
       <c r="C6">
         <v>30.38501561</v>
@@ -3239,10 +3250,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7">
         <v>35.944145429999999</v>
@@ -3277,10 +3288,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
       <c r="C8">
         <v>35.055631759999997</v>
@@ -3315,10 +3326,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9">
         <v>31.11111111</v>
@@ -3353,10 +3364,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
       <c r="C10">
         <v>28.133656510000002</v>
@@ -3391,10 +3402,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
       </c>
       <c r="C11">
         <v>34.933333330000004</v>
@@ -3429,10 +3440,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>28.677663070000001</v>
@@ -3467,10 +3478,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>33.284023670000003</v>
@@ -3505,10 +3516,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>28.040378140000001</v>
@@ -3543,10 +3554,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15">
         <v>29.13631634</v>
@@ -3581,10 +3592,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16">
         <v>33.111149580000003</v>
@@ -3619,10 +3630,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17">
         <v>32.561885089999997</v>
@@ -3657,10 +3668,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>36.88509165</v>
@@ -3695,10 +3706,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>30.483379299999999</v>
@@ -3733,10 +3744,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>34.722222219999999</v>
@@ -3771,10 +3782,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
       </c>
       <c r="C21">
         <v>29.446366780000002</v>
@@ -3809,10 +3820,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>28.40787731</v>
@@ -3847,10 +3858,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>30.110990510000001</v>
@@ -3885,10 +3896,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>29.372397379999999</v>
@@ -3923,10 +3934,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>28.344671200000001</v>
@@ -3961,10 +3972,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
       <c r="C26">
         <v>28.90625</v>
@@ -3999,10 +4010,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>32.690541779999997</v>
@@ -4037,10 +4048,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>34.927679159999997</v>
@@ -4075,10 +4086,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>38.567493110000001</v>
@@ -4113,10 +4124,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>39.159843360000004</v>
@@ -4151,10 +4162,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>37.202380949999998</v>
@@ -4189,10 +4200,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>35.003199219999999</v>
@@ -4227,10 +4238,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
       </c>
       <c r="C33">
         <v>32.051282049999998</v>
@@ -4265,10 +4276,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>34.049030600000002</v>
@@ -4303,10 +4314,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>31.229454310000001</v>
@@ -4341,10 +4352,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>38.946813259999999</v>
@@ -4379,10 +4390,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>36.289737260000003</v>
@@ -4417,10 +4428,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>31.217481790000001</v>
@@ -4455,10 +4466,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
         <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
       </c>
       <c r="C39">
         <v>32.046146450000002</v>
@@ -4493,10 +4504,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>34.720882680000003</v>
@@ -4531,10 +4542,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>30.83289383</v>
@@ -4569,10 +4580,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>35.15625</v>
@@ -4607,10 +4618,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>29.174884939999998</v>
@@ -4645,10 +4656,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
         <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
       </c>
       <c r="C44">
         <v>30.443839130000001</v>
@@ -4683,10 +4694,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>28.147600260000001</v>
@@ -4721,10 +4732,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>29.74419988</v>
@@ -4759,10 +4770,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>30.66129192</v>
@@ -4797,10 +4808,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>37.26390533</v>
@@ -4835,10 +4846,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>41.1328125</v>
@@ -4873,10 +4884,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>31.992171330000001</v>
@@ -4911,10 +4922,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>28.98114344</v>
@@ -4949,10 +4960,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>33.409204889999998</v>
@@ -4987,10 +4998,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>31.992171330000001</v>
@@ -5025,10 +5036,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54">
         <v>29.760862719999999</v>
@@ -5063,10 +5074,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>28.344671200000001</v>
@@ -5101,10 +5112,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>35.321237359999998</v>
@@ -5139,10 +5150,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>30.863035870000001</v>
@@ -5177,10 +5188,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>37.290688080000002</v>
@@ -5215,10 +5226,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>29.899691359999998</v>
@@ -5253,10 +5264,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60">
         <v>26.619343390000001</v>
@@ -5291,10 +5302,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61">
         <v>31.25</v>
@@ -5329,10 +5340,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>29.13631634</v>
@@ -5367,10 +5378,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>31.25</v>
@@ -5405,10 +5416,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>29.065743940000001</v>
@@ -5443,10 +5454,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65">
         <v>30.46875</v>
@@ -5481,10 +5492,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
         <v>32.421875</v>
@@ -5519,10 +5530,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>33.007530840000001</v>
@@ -5557,10 +5568,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>30.46875</v>
@@ -5595,10 +5606,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>29.296875</v>
@@ -5633,10 +5644,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>39.302112030000004</v>
@@ -5671,10 +5682,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>31.753520099999999</v>
@@ -5709,10 +5720,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>34.997470059999998</v>
@@ -5747,10 +5758,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>29.64268547</v>
@@ -5785,10 +5796,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74">
         <v>30.47052154</v>
@@ -5823,10 +5834,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75">
         <v>20.703125</v>
@@ -5861,10 +5872,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76">
         <v>36.363636360000001</v>
@@ -5899,10 +5910,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77">
         <v>31.221303949999999</v>
@@ -5937,10 +5948,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
         <v>106</v>
-      </c>
-      <c r="B78" t="s">
-        <v>107</v>
       </c>
       <c r="C78">
         <v>32</v>
@@ -5975,10 +5986,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>30.3758766544418</v>
@@ -6013,10 +6024,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C80">
         <v>31.3209292888397</v>
@@ -6051,10 +6062,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
         <v>110</v>
-      </c>
-      <c r="B81" t="s">
-        <v>111</v>
       </c>
       <c r="C81">
         <v>29.442232820486499</v>
@@ -6089,10 +6100,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>32.571934020897899</v>
@@ -6127,10 +6138,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>32.944362206242801</v>
@@ -6165,10 +6176,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84">
         <v>33.101272828796702</v>
@@ -6203,10 +6214,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" t="s">
         <v>115</v>
-      </c>
-      <c r="B85" t="s">
-        <v>116</v>
       </c>
       <c r="C85">
         <v>29.2349519135559</v>
@@ -6241,10 +6252,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
         <v>117</v>
-      </c>
-      <c r="B86" t="s">
-        <v>118</v>
       </c>
       <c r="C86">
         <v>31.713683009157801</v>
@@ -6279,10 +6290,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>29.805056097599302</v>
@@ -6317,10 +6328,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" t="s">
         <v>120</v>
-      </c>
-      <c r="B88" t="s">
-        <v>121</v>
       </c>
       <c r="C88">
         <v>31.9130114049191</v>
@@ -6355,10 +6366,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>33.950463475697902</v>
@@ -6393,10 +6404,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
         <v>123</v>
-      </c>
-      <c r="B90" t="s">
-        <v>124</v>
       </c>
       <c r="C90">
         <v>30.3208818878574</v>
@@ -6431,10 +6442,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>33.144739227242802</v>
@@ -6469,10 +6480,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92">
         <v>30.2523632192256</v>
@@ -6507,10 +6518,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93">
         <v>30.9542707710965</v>
@@ -6545,10 +6556,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94">
         <v>32.719395379730997</v>
@@ -6583,10 +6594,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
         <v>129</v>
-      </c>
-      <c r="B95" t="s">
-        <v>130</v>
       </c>
       <c r="C95">
         <v>30.276953206480801</v>
@@ -6621,10 +6632,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96">
         <v>28.528291553545099</v>
@@ -6659,10 +6670,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97">
         <v>34.141291745292698</v>
@@ -6697,10 +6708,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>32.425584327813503</v>
@@ -6735,10 +6746,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C99">
         <v>30.629352977418598</v>
@@ -6773,10 +6784,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100">
         <v>27.881342850496601</v>
@@ -6811,10 +6822,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C101">
         <v>35.547815695306703</v>
@@ -6849,10 +6860,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102">
         <v>38.538107444128201</v>
@@ -6887,10 +6898,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>32.4057579571123</v>
@@ -6925,10 +6936,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104">
         <v>33.3864536680302</v>
@@ -6963,10 +6974,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C105">
         <v>33.8632982242097</v>
@@ -7001,10 +7012,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106">
         <v>30.185195113684799</v>
@@ -7039,10 +7050,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C107">
         <v>31.0963695756299</v>
@@ -7077,10 +7088,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108">
         <v>28.193481630942902</v>
@@ -7115,10 +7126,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C109">
         <v>30.556004825025099</v>
@@ -7153,10 +7164,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110">
         <v>33.112311911812398</v>
@@ -7191,10 +7202,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C111">
         <v>31.344815526119501</v>
@@ -7229,10 +7240,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112">
         <v>31.260848498883501</v>
@@ -7267,10 +7278,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113">
         <v>31.559109179429399</v>
@@ -7305,10 +7316,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114">
         <v>28.171273205841199</v>
@@ -7343,10 +7354,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115">
         <v>33.516622516700302</v>
@@ -7381,10 +7392,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116">
         <v>28.970745296172598</v>
@@ -7419,10 +7430,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>31.449937670705602</v>
@@ -7457,10 +7468,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118">
         <v>30.646184548800498</v>
@@ -7495,10 +7506,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119">
         <v>31.402421438436399</v>
@@ -7533,10 +7544,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C120">
         <v>34.5009831046413</v>
@@ -7571,10 +7582,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121">
         <v>30.598603378662698</v>
@@ -7609,10 +7620,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C122">
         <v>30.146012671945702</v>
@@ -7647,10 +7658,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123">
         <v>28.737436262759001</v>
@@ -7685,10 +7696,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124">
         <v>30.282667953009</v>
@@ -7723,10 +7734,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125">
         <v>29.485653202814099</v>
@@ -7761,10 +7772,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C126">
         <v>32.716021973870802</v>
@@ -7799,10 +7810,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>29.891161622066502</v>
@@ -7837,10 +7848,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C128">
         <v>32.344887399927401</v>
@@ -7875,10 +7886,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C129">
         <v>34.570360732965597</v>
@@ -7913,10 +7924,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130">
         <v>29.010536835781501</v>
@@ -7951,10 +7962,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C131">
         <v>30.093126649934799</v>
@@ -7989,10 +8000,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132">
         <v>33.830899329942099</v>
@@ -8027,10 +8038,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C133">
         <v>33.3757567660939</v>
@@ -8065,10 +8076,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C134">
         <v>35.568089454264999</v>
@@ -8103,10 +8114,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135">
         <v>31.783795285889401</v>
@@ -8141,10 +8152,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C136">
         <v>28.6124502205125</v>
@@ -8179,10 +8190,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C137">
         <v>30.180882014639501</v>
@@ -8217,10 +8228,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138">
         <v>32.510626896715401</v>
@@ -8255,10 +8266,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C139">
         <v>35.285486228145402</v>
@@ -8293,10 +8304,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C140">
         <v>32.017138236274</v>
@@ -8331,10 +8342,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141">
         <v>33.976038300535897</v>
@@ -8369,10 +8380,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142">
         <v>33.211258835978903</v>
@@ -8407,10 +8418,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C143">
         <v>29.565669647543</v>
@@ -8445,10 +8456,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C144">
         <v>31.631736043957101</v>
@@ -8483,10 +8494,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C145">
         <v>34.301193103709601</v>
@@ -8521,10 +8532,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C146">
         <v>33.517889736660997</v>
@@ -8559,10 +8570,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C147">
         <v>32.763941517249499</v>
@@ -8597,10 +8608,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C148">
         <v>32.365078341190198</v>
@@ -8635,10 +8646,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C149">
         <v>30.763313673746602</v>
@@ -8673,10 +8684,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C150">
         <v>29.090374615573001</v>
@@ -8711,10 +8722,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C151">
         <v>34.484399068444901</v>
@@ -8749,10 +8760,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C152">
         <v>29.123741819340101</v>
@@ -8787,10 +8798,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C153">
         <v>29.811004354481401</v>
@@ -8825,10 +8836,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C154">
         <v>33.020065360082697</v>
@@ -8863,10 +8874,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C155">
         <v>29.037876145773801</v>
@@ -8901,10 +8912,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C156">
         <v>30.758852520261701</v>
@@ -8939,10 +8950,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C157">
         <v>29.4190260663914</v>
@@ -8977,10 +8988,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C158">
         <v>33.212210469934803</v>
@@ -9015,10 +9026,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159">
         <v>32.311708576773</v>
@@ -9053,10 +9064,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C160">
         <v>32.594131264121103</v>
@@ -9091,10 +9102,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C161">
         <v>32.557987344976702</v>
@@ -9129,10 +9140,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162">
         <v>32.925892211866099</v>
@@ -9167,10 +9178,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163">
         <v>33.050066683548103</v>
@@ -9205,10 +9216,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C164">
         <v>28.064931485871401</v>
@@ -9243,10 +9254,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C165">
         <v>31.563269260215701</v>
@@ -9281,10 +9292,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C166">
         <v>32.136434354148101</v>
@@ -9319,10 +9330,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C167">
         <v>33.341955021822002</v>
@@ -9357,10 +9368,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C168">
         <v>29.747574510928601</v>
@@ -9395,10 +9406,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C169">
         <v>30.586318333259499</v>
@@ -9433,10 +9444,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B170" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C170">
         <v>29.996065036044801</v>
@@ -9471,10 +9482,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C171">
         <v>33.7864936354758</v>
@@ -9509,10 +9520,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C172">
         <v>34.215671325648003</v>
@@ -9547,10 +9558,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173">
         <v>33.413700593704299</v>
@@ -9585,10 +9596,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C174">
         <v>29.346686764034299</v>
@@ -9623,10 +9634,10 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C175">
         <v>32.471062037527602</v>
@@ -9661,10 +9672,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C176">
         <v>33.719678011109103</v>
@@ -9699,10 +9710,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C177">
         <v>32.135094838857597</v>
@@ -9737,10 +9748,10 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178">
         <v>30.703133186573101</v>
